--- a/App1/Mass Balance.xlsx
+++ b/App1/Mass Balance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shagun Agarwal\Copy\Forbes Marshall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\events\App1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Ingredients</t>
   </si>
@@ -136,82 +136,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Density AAC</t>
-  </si>
-  <si>
-    <t>% tob in AAC</t>
-  </si>
-  <si>
-    <r>
-      <t>(kg/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>10 to 15</t>
-  </si>
-  <si>
-    <t>Volume AAC</t>
-  </si>
-  <si>
-    <r>
-      <t>(m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Mass AAC</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>Mass tob AAC</t>
-  </si>
-  <si>
-    <t>300 to 750</t>
-  </si>
-  <si>
     <t>CaO</t>
   </si>
   <si>
@@ -264,25 +188,13 @@
   </si>
   <si>
     <t>Mass GC</t>
-  </si>
-  <si>
-    <t>R Mass I</t>
-  </si>
-  <si>
-    <t>R Mass II</t>
-  </si>
-  <si>
-    <t>R Mass T</t>
-  </si>
-  <si>
-    <t>R Mass T (kg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,14 +212,6 @@
     </font>
     <font>
       <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,11 +240,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,7 +530,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,490 +546,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="B2">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>K23</f>
-        <v>102648.21459080813</v>
-      </c>
-      <c r="D2">
-        <f>C2+B2</f>
-        <v>102648.21459080813</v>
-      </c>
-      <c r="E2">
-        <f>D2/1000</f>
-        <v>102.64821459080812</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.5</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <f>(M2*J2*I2)*(1+(N2/100))</f>
+      <c r="G2">
+        <f>(E2*B2*A2)*(1+(F2/100))</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="P2">
-        <f>N4*O2/(O4*(M4+273))</f>
+      <c r="H2">
+        <f>F4*G2/(G4*(E4+273))</f>
         <v>20.307112501002322</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f>J12</f>
-        <v>1137.1983000561299</v>
-      </c>
-      <c r="C3">
-        <f>J23</f>
-        <v>79731.191981320124</v>
-      </c>
-      <c r="D3">
-        <f>C3+B3</f>
-        <v>80868.390281376254</v>
-      </c>
-      <c r="E3">
-        <f>D3/1000</f>
-        <v>80.86839028137625</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <f>K12</f>
-        <v>365.25726351802842</v>
-      </c>
-      <c r="C4">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>C4+B4</f>
-        <v>365.25726351802842</v>
-      </c>
       <c r="E4">
-        <f>D4/1000</f>
-        <v>0.3652572635180284</v>
-      </c>
-      <c r="M4">
         <v>42</v>
       </c>
-      <c r="N4">
+      <c r="F4">
         <f>1.013*100000</f>
         <v>101299.99999999999</v>
       </c>
-      <c r="O4">
+      <c r="G4">
         <v>8.3140000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <f>L12</f>
-        <v>1097.4978951166706</v>
-      </c>
-      <c r="C5">
-        <f>L23</f>
-        <v>25649.239706133609</v>
-      </c>
-      <c r="D5">
-        <f>C5+B5</f>
-        <v>26746.737601250279</v>
-      </c>
-      <c r="E5">
-        <f>D5/1000</f>
-        <v>26.746737601250278</v>
-      </c>
-    </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I7" s="1"/>
-      <c r="J7" s="4" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I9" s="1" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J9">
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="N9">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="G9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I10" s="1" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J10">
-        <f>$O$10/$O$9*J9</f>
+      <c r="B10">
+        <f>$G$10/$G$9*B9</f>
         <v>20.307112501002322</v>
       </c>
-      <c r="K10">
-        <f>$O$10/$O$9*K9</f>
+      <c r="C10">
+        <f>$G$10/$G$9*C9</f>
         <v>13.538075000668215</v>
       </c>
-      <c r="L10">
-        <f>$O$10/$O$9*L9</f>
+      <c r="D10">
+        <f>$G$10/$G$9*D9</f>
         <v>60.921337503006967</v>
       </c>
-      <c r="N10">
-        <f>$O$10/$O$9*N9</f>
+      <c r="F10">
+        <f>$G$10/$G$9*F9</f>
         <v>6.7690375003341074</v>
       </c>
-      <c r="O10">
-        <f>P2</f>
+      <c r="G10">
+        <f>H2</f>
         <v>20.307112501002322</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I11" s="1" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J11">
+      <c r="B11">
         <v>56</v>
       </c>
-      <c r="K11">
+      <c r="C11">
         <v>26.98</v>
       </c>
-      <c r="L11">
+      <c r="D11">
         <v>18.015000000000001</v>
       </c>
-      <c r="N11">
+      <c r="F11">
         <v>378.19299999999998</v>
       </c>
-      <c r="O11">
+      <c r="G11">
         <v>2.016</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I12" s="1" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J12">
-        <f>J11*J10</f>
+      <c r="B12">
+        <f>B11*B10</f>
         <v>1137.1983000561299</v>
       </c>
-      <c r="K12">
-        <f>K11*K10</f>
+      <c r="C12">
+        <f>C11*C10</f>
         <v>365.25726351802842</v>
       </c>
-      <c r="L12">
-        <f>L11*L10</f>
+      <c r="D12">
+        <f>D11*D10</f>
         <v>1097.4978951166706</v>
       </c>
-      <c r="N12">
-        <f>N11*N10</f>
+      <c r="F12">
+        <f>F11*F10</f>
         <v>2560.0025993638569</v>
       </c>
-      <c r="O12">
-        <f>O11*O10</f>
+      <c r="G12">
+        <f>G11*G10</f>
         <v>40.939138802020679</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18">
-        <v>500</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>60.08</v>
+      </c>
+      <c r="D21">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="F21">
+        <v>702.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="e">
+        <f>$F$22/$F$20*B20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" t="e">
+        <f>$F$22/$F$20*C20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" t="e">
+        <f>$F$22/$F$20*D20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F22" t="e">
+        <f>F23/F21</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="e">
+        <f>B22*B21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C23" t="e">
+        <f>C22*C21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" t="e">
+        <f>D22*D21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F23" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <f>I2*J2*K2</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21">
-        <f>D20*D18*1000</f>
-        <v>500000</v>
-      </c>
-      <c r="E21">
-        <f>D21/1000</f>
-        <v>500</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21">
-        <v>56</v>
-      </c>
-      <c r="K21">
-        <v>60.08</v>
-      </c>
-      <c r="L21">
-        <v>18.015000000000001</v>
-      </c>
-      <c r="N21">
-        <v>702.36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <f>D21*D19/100</f>
-        <v>200000</v>
-      </c>
-      <c r="E22">
-        <f>D22/1000</f>
-        <v>200</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22">
-        <f>$N$22/$N$20*J20</f>
-        <v>1423.7712853807166</v>
-      </c>
-      <c r="K22">
-        <f>$N$22/$N$20*K20</f>
-        <v>1708.5255424568597</v>
-      </c>
-      <c r="L22">
-        <f>$N$22/$N$20*L20</f>
-        <v>1423.7712853807166</v>
-      </c>
-      <c r="N22">
-        <f>N23/N21</f>
-        <v>284.75425707614329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23">
-        <f>J22*J21</f>
-        <v>79731.191981320124</v>
-      </c>
-      <c r="K23">
-        <f>K22*K21</f>
-        <v>102648.21459080813</v>
-      </c>
-      <c r="L23">
-        <f>L22*L21</f>
-        <v>25649.239706133609</v>
-      </c>
-      <c r="N23">
-        <f>D22</f>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24">
-        <f>J23/1000</f>
-        <v>79.731191981320123</v>
-      </c>
-      <c r="K24">
-        <f>K23/1000</f>
-        <v>102.64821459080812</v>
-      </c>
-      <c r="L24">
-        <f>L23/1000</f>
-        <v>25.64923970613361</v>
-      </c>
-      <c r="N24">
-        <f>N23/1000</f>
-        <v>200</v>
+      <c r="B24" t="e">
+        <f>B23/1000</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C24" t="e">
+        <f>C23/1000</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" t="e">
+        <f>D23/1000</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F24" t="e">
+        <f>F23/1000</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1164,16 +918,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1263,7 +1017,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <f>C2*G2*B9+C4*G4*B9</f>
@@ -1276,7 +1030,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <f>B12/(1+B10)</f>
@@ -1285,7 +1039,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0.55000000000000004</v>
@@ -1293,7 +1047,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <f>B10*B9</f>
@@ -1302,7 +1056,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>500</v>
@@ -1310,7 +1064,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <f>SUM(I2:I5)</f>
@@ -1319,7 +1073,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <f>B12/B13</f>
@@ -1328,7 +1082,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>500</v>
@@ -1336,7 +1090,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1344,7 +1098,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1352,7 +1106,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1360,7 +1114,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <f>B19*B18*B17</f>
@@ -1369,7 +1123,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <f>B20*B16</f>
